--- a/1129/worst-D.xlsx
+++ b/1129/worst-D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takedakiyoshi/lab/kline/KLINE/1129/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A23D831-97ED-DD4A-A25D-DEF76CA7A897}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D604FB48-DE50-7C4F-BE88-F079E72B7E5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32680" yWindow="1480" windowWidth="25480" windowHeight="14920" xr2:uid="{7CC73CB4-CDDD-EC44-B32E-84A35A9C188A}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="16500" windowHeight="14920" xr2:uid="{7CC73CB4-CDDD-EC44-B32E-84A35A9C188A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,19 +90,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,9 +146,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -152,19 +155,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -173,7 +176,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,22 +690,238 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC476EFE-1159-B546-BCE8-41D3361E10C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225040" y="2143760"/>
+          <a:ext cx="1202267" cy="209973"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>748313</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47424</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5524CC-DDCD-C643-AB02-1478E0F640E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2241833" y="1910080"/>
+          <a:ext cx="176247" cy="169344"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>744901</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129466</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98641</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F79D3FF-438D-734B-B945-623780C4E4AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1379901" y="2894445"/>
+          <a:ext cx="235342" cy="237400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>707813</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>89747</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D15EF5-F96D-2045-BFF0-B2722398939E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1347893" y="2942693"/>
+          <a:ext cx="235374" cy="452440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>250254</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783FC53A-4104-7844-945C-F8E9B1ECB9D0}"/>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A6E29E-3DC2-7942-BEAD-492B095BABB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -707,14 +929,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485777" y="2780437"/>
+          <a:off x="1485777" y="3791505"/>
           <a:ext cx="254000" cy="250254"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -749,23 +974,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>691266</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4244</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>250254</xdr:rowOff>
+      <xdr:colOff>671991</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>835746</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3652</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92582636-E37E-7E45-ACD2-F2BE8E286817}"/>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B283C91-7712-2041-B8E8-DC341F33C267}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -773,14 +998,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1328945" y="2770422"/>
-          <a:ext cx="165004" cy="250254"/>
+          <a:off x="2157768" y="3797670"/>
+          <a:ext cx="163755" cy="250254"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="92D050"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -815,23 +1040,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3174</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>115454</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>250253</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>696452</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7398</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3652</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AADE4A6B-F837-FC45-946F-6A97B8F803B1}"/>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D93D6A-190B-E84E-85AF-5BD85C9769A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,14 +1064,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324835" y="2270281"/>
-          <a:ext cx="115454" cy="247079"/>
+          <a:off x="3973871" y="3277732"/>
+          <a:ext cx="159564" cy="249146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -881,239 +1109,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>831508</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>135467</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC476EFE-1159-B546-BCE8-41D3361E10C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2225040" y="2143760"/>
-          <a:ext cx="1202267" cy="209973"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>748313</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>81280</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47424</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5524CC-DDCD-C643-AB02-1478E0F640E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2241833" y="1910080"/>
-          <a:ext cx="176247" cy="169344"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>744901</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114008</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>129466</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>98641</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F79D3FF-438D-734B-B945-623780C4E4AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1379901" y="2894445"/>
-          <a:ext cx="235342" cy="237400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>707813</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>148693</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>89747</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>93133</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D15EF5-F96D-2045-BFF0-B2722398939E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1347893" y="2942693"/>
-          <a:ext cx="235374" cy="452440"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>5852</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>250254</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A6E29E-3DC2-7942-BEAD-492B095BABB9}"/>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881F7B73-137D-D549-8522-AB269C58DE17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1121,8 +1133,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485777" y="3791505"/>
-          <a:ext cx="254000" cy="250254"/>
+          <a:off x="3154964" y="3274814"/>
+          <a:ext cx="128307" cy="248412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1163,23 +1175,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>671991</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>6165</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>835746</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3652</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>252317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>144436</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>246630</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B283C91-7712-2041-B8E8-DC341F33C267}"/>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D752854-E6E9-8F4F-B03D-FAD5587FDD69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1187,14 +1199,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2157768" y="3797670"/>
-          <a:ext cx="163755" cy="250254"/>
+          <a:off x="2329735" y="3280132"/>
+          <a:ext cx="144436" cy="246630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="92D050"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1229,23 +1241,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714901</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>252317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>826117</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>124534</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>250254</xdr:rowOff>
+      <xdr:colOff>18277</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>246630</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6AFFC3F-EE18-6242-8194-B26FAF1C9D3B}"/>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67E96D7-2243-EA49-A3CF-F09D9149C9C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,8 +1265,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3150340" y="3538738"/>
-          <a:ext cx="254000" cy="250254"/>
+          <a:off x="2203576" y="3280132"/>
+          <a:ext cx="144436" cy="246630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1295,23 +1307,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>950396</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>604175</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6165</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7398</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>3652</xdr:rowOff>
+      <xdr:colOff>216544</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>246630</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="正方形/長方形 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D93D6A-190B-E84E-85AF-5BD85C9769A5}"/>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015A812E-AA9E-4944-B9C0-27234AFB8EF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,8 +1331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3883981" y="3292136"/>
-          <a:ext cx="254000" cy="250254"/>
+          <a:off x="3273852" y="3019908"/>
+          <a:ext cx="220111" cy="246630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1362,22 +1374,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>831509</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3247</xdr:rowOff>
+      <xdr:colOff>636929</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>951687</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>234013</xdr:rowOff>
+      <xdr:colOff>757107</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4703</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881F7B73-137D-D549-8522-AB269C58DE17}"/>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740E4F70-2EDA-B341-BF29-F1C9BF09FC68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1385,14 +1397,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3157136" y="3296802"/>
-          <a:ext cx="120178" cy="230766"/>
+          <a:off x="2960385" y="2771672"/>
+          <a:ext cx="120178" cy="252939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="92D050"/>
+          <a:srgbClr val="00B0F0"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1428,22 +1440,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>673781</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>252317</xdr:rowOff>
+      <xdr:rowOff>3218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>144436</xdr:colOff>
+      <xdr:colOff>815926</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>246630</xdr:rowOff>
+      <xdr:rowOff>4704</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D752854-E6E9-8F4F-B03D-FAD5587FDD69}"/>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78276F6-5631-584B-8445-FB0610F44696}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,14 +1463,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2329735" y="3280132"/>
-          <a:ext cx="144436" cy="246630"/>
+          <a:off x="2997237" y="3023126"/>
+          <a:ext cx="142145" cy="253145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1493,23 +1505,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>714901</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>815611</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>249006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3793</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>252317</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>18277</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>246630</xdr:rowOff>
+      <xdr:rowOff>244184</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67E96D7-2243-EA49-A3CF-F09D9149C9C8}"/>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75492A3C-C401-6847-B255-33039603D837}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,14 +1529,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2203576" y="3280132"/>
-          <a:ext cx="144436" cy="246630"/>
+          <a:off x="3139067" y="3017255"/>
+          <a:ext cx="142145" cy="246837"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1559,23 +1571,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>950396</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>694267</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>260728</xdr:colOff>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>836412</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>246630</xdr:rowOff>
+      <xdr:rowOff>251070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015A812E-AA9E-4944-B9C0-27234AFB8EF9}"/>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8BB3D7-2CCF-E641-8A9F-44914326E832}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,14 +1595,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3280131" y="3027815"/>
-          <a:ext cx="260729" cy="246630"/>
+          <a:off x="2180167" y="3052233"/>
+          <a:ext cx="142145" cy="246837"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1625,23 +1637,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>291630</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>3423</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>411808</xdr:colOff>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>691678</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>4703</xdr:rowOff>
+      <xdr:rowOff>9747</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740E4F70-2EDA-B341-BF29-F1C9BF09FC68}"/>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C95F3A-61C3-BB40-8A93-23C15A7567C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1649,14 +1661,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2615260" y="3051423"/>
+          <a:off x="2057400" y="3056467"/>
           <a:ext cx="120178" cy="255280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="92D050"/>
+          <a:srgbClr val="00B0F0"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1691,23 +1703,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>147052</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>465667</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>3218</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>289197</xdr:colOff>
+      <xdr:rowOff>4234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>569712</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>4704</xdr:rowOff>
+      <xdr:rowOff>5720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78276F6-5631-584B-8445-FB0610F44696}"/>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E210234-99B5-8A43-A670-80040E9FB03D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,14 +1727,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2470682" y="3051218"/>
-          <a:ext cx="142145" cy="255486"/>
+          <a:off x="1951567" y="3052234"/>
+          <a:ext cx="104045" cy="255486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1758,22 +1770,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2109</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>3199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>144254</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>250036</xdr:rowOff>
+      <xdr:colOff>851220</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1302</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1486</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75492A3C-C401-6847-B255-33039603D837}"/>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AA2B74-E3AF-F04D-8A82-F50FA1339DB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,8 +1793,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2325739" y="3051199"/>
-          <a:ext cx="142145" cy="246837"/>
+          <a:off x="3174676" y="2516590"/>
+          <a:ext cx="104045" cy="253145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1823,23 +1835,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>694267</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>4233</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>836412</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>251070</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2173</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1273</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8BB3D7-2CCF-E641-8A9F-44914326E832}"/>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C74048E4-68B0-A646-A0E3-6F18595EFF4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,8 +1859,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2180167" y="3052233"/>
-          <a:ext cx="142145" cy="246837"/>
+          <a:off x="3821705" y="2271025"/>
+          <a:ext cx="306505" cy="246838"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1890,411 +1902,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>8467</xdr:rowOff>
+      <xdr:colOff>674588</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>691678</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9747</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C95F3A-61C3-BB40-8A93-23C15A7567C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2057400" y="3056467"/>
-          <a:ext cx="120178" cy="255280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>465667</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>4234</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>569712</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>5720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="正方形/長方形 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E210234-99B5-8A43-A670-80040E9FB03D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1951567" y="3052234"/>
-          <a:ext cx="104045" cy="255486"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>667927</xdr:colOff>
+      <xdr:colOff>835727</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>4703</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>952735</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>5983</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="正方形/長方形 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C629F14-B62F-2449-A198-34E9760706A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2991557" y="2544703"/>
-          <a:ext cx="284808" cy="255280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>564445</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>668490</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1486</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AA2B74-E3AF-F04D-8A82-F50FA1339DB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2888075" y="2540000"/>
-          <a:ext cx="104045" cy="255486"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>428037</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>4704</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>568673</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>253017</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA6F2A2-55FD-374E-8F6A-FE4EDF3BDAF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2751667" y="2544704"/>
-          <a:ext cx="140636" cy="248313"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>251900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>230422</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>247079</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="正方形/長方形 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C74048E4-68B0-A646-A0E3-6F18595EFF4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3279959" y="2267107"/>
-          <a:ext cx="230422" cy="247079"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>850165</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>251900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>162686</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>247079</xdr:rowOff>
+      <xdr:rowOff>1272</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2309,8 +1925,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485165" y="2267107"/>
-          <a:ext cx="162686" cy="247079"/>
+          <a:off x="2161132" y="2271024"/>
+          <a:ext cx="161139" cy="246838"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2385,7 +2001,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="92D050"/>
+          <a:srgbClr val="00B0F0"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2421,22 +2037,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>844777</xdr:colOff>
+      <xdr:colOff>789491</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>5669</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7731</xdr:colOff>
+      <xdr:rowOff>4165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952458</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>252748</xdr:rowOff>
+      <xdr:rowOff>250473</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D03DF54-3970-534C-AC20-D0A896485359}"/>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0669CC34-CD4F-E342-99EB-700FB8564782}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,14 +2060,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3169331" y="2046740"/>
-          <a:ext cx="115454" cy="247079"/>
+          <a:off x="3121412" y="2013205"/>
+          <a:ext cx="162967" cy="246308"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2486,23 +2102,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>674688</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>739040</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2143</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>11340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>837655</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>6519</xdr:rowOff>
+      <xdr:rowOff>3125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="正方形/長方形 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0669CC34-CD4F-E342-99EB-700FB8564782}"/>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66A3B9B-7027-EC45-AA43-43B2ADE73C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,14 +2126,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2999242" y="2052411"/>
-          <a:ext cx="162967" cy="250313"/>
+          <a:off x="4025255" y="1765086"/>
+          <a:ext cx="116944" cy="247079"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="00B0F0"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2552,23 +2168,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>789669</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>116944</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>247079</xdr:rowOff>
+      <xdr:rowOff>7175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952636</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7609</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66A3B9B-7027-EC45-AA43-43B2ADE73C00}"/>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D78ABC-9DB6-6F43-A5F4-C95924415F2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,14 +2192,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3285305" y="1794695"/>
-          <a:ext cx="116944" cy="247079"/>
+          <a:off x="3121590" y="1765085"/>
+          <a:ext cx="162967" cy="251564"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2619,22 +2235,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>703568</xdr:colOff>
+      <xdr:colOff>724185</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>5963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>866535</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>251564</xdr:rowOff>
+      <xdr:colOff>828230</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D78ABC-9DB6-6F43-A5F4-C95924415F2A}"/>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AA2342-DDA8-614B-B6E4-3A54D100A631}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,14 +2258,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3034883" y="1794695"/>
-          <a:ext cx="162967" cy="251564"/>
+          <a:off x="3056106" y="1763873"/>
+          <a:ext cx="104045" cy="252616"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="00B0F0"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2684,23 +2300,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>870516</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>748690</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>5546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2136</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>11925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>33470</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2619</xdr:rowOff>
+      <xdr:rowOff>2001</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="正方形/長方形 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011A0D18-ADC8-4C46-9409-09E1F8AE0DE1}"/>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEA3BF0-0A2D-E641-BCFE-F57745278039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2708,14 +2324,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3201831" y="1806620"/>
-          <a:ext cx="116944" cy="247079"/>
+          <a:off x="4026288" y="1536201"/>
+          <a:ext cx="101962" cy="251564"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:srgbClr val="00B0F0"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2751,22 +2367,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>602207</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>5963</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>706252</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7449</xdr:rowOff>
+      <xdr:colOff>674463</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>243955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8553</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>243114</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="正方形/長方形 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AA2342-DDA8-614B-B6E4-3A54D100A631}"/>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE47AAC-CF6E-8842-B2FC-35990EAE7E2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,14 +2390,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2933522" y="1800658"/>
-          <a:ext cx="104045" cy="257871"/>
+          <a:off x="3006384" y="1499605"/>
+          <a:ext cx="288384" cy="250289"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2816,23 +2432,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>748690</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>652937</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>5546</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2136</xdr:colOff>
+      <xdr:rowOff>7175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>769881</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2001</xdr:rowOff>
+      <xdr:rowOff>3124</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEA3BF0-0A2D-E641-BCFE-F57745278039}"/>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC2D7C1-A754-C34C-BE18-A12DA1EEFD2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2840,14 +2456,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4026288" y="1536201"/>
-          <a:ext cx="101962" cy="251564"/>
+          <a:off x="1291525" y="1513955"/>
+          <a:ext cx="116944" cy="247079"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="00B0F0"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2882,23 +2498,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>648865</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>767740</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>11091</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>750827</xdr:colOff>
+      <xdr:rowOff>7175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>852126</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>7546</xdr:rowOff>
+      <xdr:rowOff>6334</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="正方形/長方形 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0417005D-A1E7-A64C-A8DF-0DC661DDF9D4}"/>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6375B41-D69E-8944-AD83-AC449458CE74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2906,14 +2522,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3926463" y="1541746"/>
-          <a:ext cx="101962" cy="251564"/>
+          <a:off x="1406328" y="1513955"/>
+          <a:ext cx="84386" cy="250289"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2949,22 +2565,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>882543</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9317</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>288384</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>250289</xdr:rowOff>
+      <xdr:rowOff>3125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="正方形/長方形 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE47AAC-CF6E-8842-B2FC-35990EAE7E2E}"/>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C9A8BD9-D824-D044-8B6A-E334CE0D6A12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2972,14 +2588,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2323712" y="1530655"/>
-          <a:ext cx="288384" cy="250289"/>
+          <a:off x="3214464" y="1262826"/>
+          <a:ext cx="81068" cy="247079"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="00B0F0"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3014,23 +2630,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>116944</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>247079</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>516611</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12297</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1810</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="正方形/長方形 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC2D7C1-A754-C34C-BE18-A12DA1EEFD2A}"/>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6462A509-70B4-5B4A-8AE8-C90AEC620E5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3038,14 +2654,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635000" y="1546087"/>
-          <a:ext cx="116944" cy="247079"/>
+          <a:off x="2009040" y="1013722"/>
+          <a:ext cx="335178" cy="243738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3080,23 +2696,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>119638</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285290</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>250289</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>760830</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1684</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1031</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="正方形/長方形 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6375B41-D69E-8944-AD83-AC449458CE74}"/>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDBF0C7C-D222-AF40-AACD-01B30D4E42DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,8 +2720,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="754638" y="1546087"/>
-          <a:ext cx="165652" cy="250289"/>
+          <a:off x="3084286" y="2774102"/>
+          <a:ext cx="194817" cy="246837"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3146,23 +2762,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>837463</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>116944</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>247079</xdr:rowOff>
+      <xdr:colOff>620369</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762514</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7339</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="正方形/長方形 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C9A8BD9-D824-D044-8B6A-E334CE0D6A12}"/>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FBDD41-A5A9-EA4C-AE74-A0B7BCA33AC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3170,14 +2786,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2319130" y="1288406"/>
-          <a:ext cx="116944" cy="247079"/>
+          <a:off x="2943825" y="2774102"/>
+          <a:ext cx="142145" cy="253145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3212,23 +2828,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>220869</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12297</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1810</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>688814</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>851781</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7610</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="正方形/長方形 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6462A509-70B4-5B4A-8AE8-C90AEC620E5F}"/>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A9B57B-EB9F-3648-BF9B-A11130F9B804}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3236,14 +2852,215 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1702536" y="1039927"/>
-          <a:ext cx="628891" cy="250289"/>
+          <a:off x="3975029" y="2016215"/>
+          <a:ext cx="162967" cy="251564"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>728282</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>868191</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8662</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EC4D11-B628-EC45-81F1-85EA20B01429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3060203" y="2016215"/>
+          <a:ext cx="139909" cy="252616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>681638</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762706</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>247079</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3889A018-2082-554A-B9D1-9045DB24DC5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2174067" y="1255650"/>
+          <a:ext cx="81068" cy="247079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>760565</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2141</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>247079</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB830646-A7BE-CD46-8AEA-682D002FE1C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2252994" y="1255650"/>
+          <a:ext cx="81068" cy="247079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3578,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D6086A-5A36-2647-9BEA-DE6229B37F19}">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3593,93 +3410,93 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="F2" s="3"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="F3" s="4"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="G7" s="7"/>
       <c r="H7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="G8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="G8" s="8"/>
       <c r="H8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="G9" s="4"/>
       <c r="H9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="C16" s="10"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
